--- a/Administracion de Proyectos/Plantilla de Gestión de Cambio.xlsx
+++ b/Administracion de Proyectos/Plantilla de Gestión de Cambio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fapor\Desktop\Universidad\Semestre 6\Administracion de Proyectos\Semana 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fapor\Desktop\Universidad\Semestre 6\Proyecto admin y diseño\Administracion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7410BE-9177-4775-9F03-81EC92FC8AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679E2A94-9587-4B02-852E-8B3CBB59456A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>PLANTILLA DE PROPUESTA DE CAMBIO</t>
   </si>
@@ -134,9 +134,6 @@
     <t>FIRMA</t>
   </si>
   <si>
-    <t>FIESTA DE CONSULTORÍA</t>
-  </si>
-  <si>
     <t>AVALADO POR</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>TIEMPO ESTIMADO</t>
+  </si>
+  <si>
+    <t>Na</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -350,6 +350,12 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -563,7 +569,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,31 +636,56 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,49 +697,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -997,11 +997,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45:E45"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1037,8 +1037,8 @@
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>53</v>
+      <c r="C3" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
@@ -1054,8 +1054,8 @@
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>56</v>
+      <c r="C4" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
@@ -1071,8 +1071,8 @@
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>55</v>
+      <c r="C5" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="29"/>
@@ -1115,7 +1115,7 @@
       <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="29"/>
@@ -1129,7 +1129,7 @@
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="29"/>
@@ -1143,7 +1143,7 @@
       <c r="B11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="29"/>
@@ -1157,7 +1157,7 @@
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="29"/>
@@ -1168,27 +1168,27 @@
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="52"/>
+      <c r="C14" s="44" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="44" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="29"/>
@@ -1199,10 +1199,10 @@
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="31"/>
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
     </row>
@@ -1211,10 +1211,10 @@
       <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="29"/>
       <c r="H16" s="30"/>
     </row>
@@ -1223,36 +1223,36 @@
       <c r="B17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
     </row>
-    <row r="18" spans="1:8" s="57" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="40" t="s">
+    <row r="18" spans="1:8" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="44" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="44" t="s">
         <v>21</v>
       </c>
       <c r="G19" s="29"/>
@@ -1263,10 +1263,12 @@
       <c r="B20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="29"/>
       <c r="H20" s="30"/>
     </row>
@@ -1275,10 +1277,10 @@
       <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="31"/>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
     </row>
@@ -1287,10 +1289,10 @@
       <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
     </row>
@@ -1299,95 +1301,92 @@
       <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:8" s="61" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="58" t="s">
+    <row r="25" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="1:8" s="57" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="56"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="14" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+    </row>
+    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-    </row>
-    <row r="30" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="51" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="35" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="29"/>
@@ -1397,55 +1396,55 @@
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
     </row>
-    <row r="33" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="30"/>
+      <c r="G33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="30"/>
-      <c r="D34" s="31" t="s">
-        <v>40</v>
-      </c>
+      <c r="D34" s="31"/>
       <c r="E34" s="29"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="30"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="29"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="30"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="29"/>
       <c r="F36" s="30"/>
       <c r="G36" s="17"/>
@@ -1453,11 +1452,11 @@
     </row>
     <row r="37" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="30"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="29"/>
       <c r="F37" s="30"/>
       <c r="G37" s="17"/>
@@ -1465,33 +1464,30 @@
     </row>
     <row r="38" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="32"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="G38" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="16">
+        <f>SUM(H34:H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="16">
-        <f>SUM(H35:H38)</f>
-        <v>0</v>
-      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
@@ -1500,7 +1496,7 @@
       <c r="H40" s="30"/>
     </row>
     <row r="41" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
@@ -1508,8 +1504,11 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
     </row>
-    <row r="42" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="35"/>
+    <row r="42" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
@@ -1517,43 +1516,41 @@
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
     </row>
-    <row r="43" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-    </row>
-    <row r="44" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="31" t="s">
-        <v>48</v>
-      </c>
+      <c r="B44" s="31"/>
       <c r="C44" s="30"/>
-      <c r="D44" s="31" t="s">
-        <v>40</v>
-      </c>
+      <c r="D44" s="31"/>
       <c r="E44" s="30"/>
-      <c r="F44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="32"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="30"/>
-      <c r="D45" s="32"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="30"/>
       <c r="F45" s="20"/>
       <c r="G45" s="21"/>
@@ -1561,9 +1558,9 @@
     </row>
     <row r="46" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="32"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="30"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="30"/>
       <c r="F46" s="20"/>
       <c r="G46" s="21"/>
@@ -1571,9 +1568,9 @@
     </row>
     <row r="47" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="32"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="30"/>
-      <c r="D47" s="32"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="30"/>
       <c r="F47" s="20"/>
       <c r="G47" s="21"/>
@@ -1581,34 +1578,36 @@
     </row>
     <row r="48" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="34"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="16">
+        <f>SUM(G44:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="16">
+        <f>SUM(H44:H47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="28"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" s="16">
-        <f>SUM(G45:G48)</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="16">
-        <f>SUM(H45:H48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
@@ -1616,37 +1615,35 @@
       <c r="G50" s="29"/>
       <c r="H50" s="30"/>
     </row>
-    <row r="51" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="33" t="s">
-        <v>51</v>
+      <c r="B51" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
       <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="30"/>
-    </row>
-    <row r="52" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="30"/>
+      <c r="G51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="31" t="s">
-        <v>40</v>
-      </c>
+      <c r="B52" s="31"/>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
       <c r="F52" s="30"/>
-      <c r="G52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="53" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="32"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="29"/>
       <c r="D53" s="29"/>
       <c r="E53" s="29"/>
@@ -1656,7 +1653,7 @@
     </row>
     <row r="54" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="32"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="55" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="32"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="29"/>
       <c r="D55" s="29"/>
       <c r="E55" s="29"/>
@@ -1676,67 +1673,87 @@
     </row>
     <row r="56" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="32"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="30"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="16">
-        <f>SUM(H53:H56)</f>
+      <c r="G56" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="16">
+        <f>SUM(H52:H55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="24"/>
-      <c r="B59" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:8" s="25" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="24"/>
+      <c r="B58" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="77">
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
     <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B38:F38"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B40:H40"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="C11:H11"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
@@ -1746,57 +1763,24 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B41:H41"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B59" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B58" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Administracion de Proyectos/Plantilla de Gestión de Cambio.xlsx
+++ b/Administracion de Proyectos/Plantilla de Gestión de Cambio.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fapor\Desktop\Universidad\Semestre-6\Proyecto admin y diseño\Administracion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE41ECB8-78B5-44CD-87BB-4716D574A64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B75750-E76D-4901-9958-AFF5D5633391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B109A3AE-8A64-49C5-B896-A074A2C3C5F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="2" r:id="rId1"/>
-    <sheet name=" D" sheetId="4" r:id="rId2"/>
+    <sheet name="Explicaciones y Procesos" sheetId="4" r:id="rId2"/>
     <sheet name="Acrónimos y Definiciones" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>Niveles de autoridad</t>
   </si>
@@ -77,9 +78,6 @@
   </si>
   <si>
     <t>Reparación de defecto</t>
-  </si>
-  <si>
-    <t>Esteban Ballestero tiene la autoridad para aprobarlo y coordinar su ejecución con Julio César Castro Ortiz, Andrik Solano Jiménez, Luz Clara Mora Salazar y Steven Solís Obando.</t>
   </si>
   <si>
     <t xml:space="preserve">Cambio al plan de proyecto </t>
@@ -253,6 +251,12 @@
     <t>Tomar decisión y replanificar</t>
   </si>
   <si>
+    <t>Implantar el cambio</t>
+  </si>
+  <si>
+    <t>Concluir el proceso de cambio</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -272,7 +276,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> El comité de Cambios evalúa los posibles impactos por el Project Manager y toma la decisión de aprobar, rechazar total o parcialmente el cambio.
+      <t xml:space="preserve"> El Project Manager verifica que todo el proceso de cambios se haya seguido correctamente.
 </t>
     </r>
     <r>
@@ -294,11 +298,350 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> El Project Manager verifica y actualiza los documentos, registros y archivos correspondientes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Genera las Lecciones aprendidas que sean adecuadas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se generan los activos procesos de la organización que sean convenientes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Actualiza el estado de la solicitud en el Log de control de Solicitudes de cambio.</t>
+    </r>
+  </si>
+  <si>
+    <t>Plan de contingencia ante solicitudes de cambio urgentes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">	 Modificación del plan de trabajo: Julio César Castro modifica el plan de trabajo con base en la decisión del comité.</t>
+    </r>
+  </si>
+  <si>
+    <t>Herramientas de gestión de cambios</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Se usará Jira Software para el cambio y gestión de tareas.</t>
+  </si>
+  <si>
+    <t>Procedimientos</t>
+  </si>
+  <si>
+    <t>Solicitud de cambios, Verificar Solicitud de Cambios, Evaluar Impactos, Tomar decisión y replanificar, Implantar el cambio, Concluir el proceso de cambio.</t>
+  </si>
+  <si>
+    <t>Formatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para la solicitud de cambio se usa el documento Formato FGPR410 (ver Anexo 1), en el cual se detallan diversos datos de la solicitud de cambio, como la razón, descripción del cambio, definición del problema, solicitante, efecto en el proyecto, etc. </t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>El cambio tiene un tecnicismo del cual el equipo desarrollador cuanta con la experiencia y conocimiento para ejecutar el cambio.</t>
+  </si>
+  <si>
+    <t>El cambio no aumenta representa un costo mayor al 5% del presupuesto previamente establecido en el acta de constitución. Es decir, el presupuesto debe ser aumentado a más de un 5%.</t>
+  </si>
+  <si>
+    <t>El cambio constituyo un tiempo de ejecución no mayor a dos semanas.</t>
+  </si>
+  <si>
+    <t>El cambio está delimitado al alcance del proyecto según el plan de gestión del alcance, o bien, está altamente ligado al requisito que representa.</t>
+  </si>
+  <si>
+    <t>El cambio no puede estar en un nuevo requisito.</t>
+  </si>
+  <si>
+    <t>El cambio no implica un rediseño de total del plan de trabajo.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">El Asistente de Gestión de Proyectos se contacta con el stakeholder cada vez que capta una iniciativa de cambio al ser una metodología ágil.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Entrevista al Stakeholder y levanta información detallada sobre lo que desea. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Formaliza la iniciativa de cambio elaborando la Solicitud de Cambio respectiva usando el formato FGPR410 (ver Anexo).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Se presenta la solicitud de cambio al Project Manager</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador de proyecto es la única persona autorizada para utilizar y ejecutar personalmente este Plan de Contingencia.
+</t>
+  </si>
+  <si>
+    <t>1. Registrar la Solicitud de Cambio: El Project Manager registra personalmente la solicitud.</t>
+  </si>
+  <si>
+    <t>Detalle el cambio solicitado, indique qué, quién, cómo, cuándo, dónde</t>
+  </si>
+  <si>
+    <t>Razón por la que se solicita el cambio, qué motiva el cambio, porque se elige este curso de acción y no otro. Indique el efecto si el cammbio no se realiza</t>
+  </si>
+  <si>
+    <t>Efecto en el proyecto</t>
+  </si>
+  <si>
+    <t>Efecto en otros proyectos</t>
+  </si>
+  <si>
+    <t>El Project Manager tiene la autoridad para aprobar el cambio y coordinar su ejecución con equipo del proyecto</t>
+  </si>
+  <si>
+    <t>Plan de gestión de cambios</t>
+  </si>
+  <si>
+    <t>Patrocinador</t>
+  </si>
+  <si>
+    <t>Equipo de Trabajo</t>
+  </si>
+  <si>
+    <t>Acronimo</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>StakeHolders</t>
+  </si>
+  <si>
+    <t>Interesados en el proyecto</t>
+  </si>
+  <si>
+    <t>Gerente del Proyecto</t>
+  </si>
+  <si>
+    <t>Definición del Problema o Situación Actual. Acote el problema a resolver, indique las causas y consecuencias</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
+  </si>
+  <si>
+    <t>Solicitud del Cambio</t>
+  </si>
+  <si>
+    <t>Prioridad del Cambio:</t>
+  </si>
+  <si>
+    <t>Identificación del Cambio:</t>
+  </si>
+  <si>
+    <t>Nombre del Solicitante del Cambio:</t>
+  </si>
+  <si>
+    <t>Tipo de Cambio Requerido (Cambiar color a verde)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> El Equipo de Trabajo evalúa los posibles impactos por el Project Manager y toma la decisión de aprobar, rechazar total o parcialmente el cambio.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> Se llega a un acuerdo con el Sponsor y se determina los aspectos como tiempo, costo y recursos necesarios plasmados en el plan de proyecto.</t>
     </r>
   </si>
   <si>
-    <t>Implantar el cambio</t>
+    <t>El Sponsor tiene la autoridad para aprobarlo y coordinar su ejecución con el equipo de trabajo y el project manager.</t>
+  </si>
+  <si>
+    <t>El Project Manager tiene la autoridad para aprobar el cambio y coordinar su ejecución con equipo del trabajo</t>
+  </si>
+  <si>
+    <t>Asisistente de Gestión de Proyectos</t>
   </si>
   <si>
     <r>
@@ -364,7 +707,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> El Project Manager coordina al equipo de trabajo del proyecto para la ejecución de la nueva versión del proyecto.
+      <t xml:space="preserve"> El Asistente de Gestión de Proyectos coordina al equipo de trabajo del proyecto para la ejecución de la nueva versión del proyecto.
 </t>
     </r>
     <r>
@@ -434,123 +777,6 @@
     </r>
   </si>
   <si>
-    <t>Concluir el proceso de cambio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El Project Manager verifica que todo el proceso de cambios se haya seguido correctamente.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> El Project Manager verifica y actualiza los documentos, registros y archivos correspondientes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Genera las Lecciones aprendidas que sean adecuadas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se generan los activos procesos de la organización que sean convenientes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Actualiza el estado de la solicitud en el Log de control de Solicitudes de cambio.</t>
-    </r>
-  </si>
-  <si>
-    <t>Plan de contingencia ante solicitudes de cambio urgentes</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -570,7 +796,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">	Verificar la Solicitud de Cambio: Julio César Castro verifica la solicitud.</t>
+      <t xml:space="preserve">	Verificar la Solicitud de Cambio: El Asistente de Gestión de Proyectos verifica la solicitud.</t>
     </r>
   </si>
   <si>
@@ -593,8 +819,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">	Evaluar Impactos: Julio César Castro evalúa impactos.</t>
-    </r>
+      <t xml:space="preserve">	Evaluar Impactos: el Asistente de Gestión de Proyectos  evalúa impactos.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. 	Toma de decisión: el Asistente de Gestión de Proyectos  procesa la decisión consultando al Sponsor, o en su defecto consultando a por lo menos dos miembros del Equipo de Trabajo.</t>
   </si>
   <si>
     <r>
@@ -616,30 +845,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">	Validar y oficializar el cambio: Julio César Castro convoca al Comité de Control de Cambios y sustenta la necesidad de haber utilizado este procedimiento de urgencia. El Comité de Control de Cambios formaliza la aprobación o reconsidera la decisión del Project Manager.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">	 Modificación del plan de trabajo: Julio César Castro modifica el plan de trabajo con base en la decisión del comité.</t>
+      <t xml:space="preserve">	Validar y oficializar el cambio: Asistente de Gestión de Proyectos convoca al Equipo de Trabajo y sustenta la necesidad de haber utilizado este procedimiento de urgencia. El Equipo de Trabajo formaliza la aprobación o reconsidera la decisión del Project Manager.</t>
     </r>
   </si>
   <si>
@@ -662,207 +868,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">	 Concluir el cambio: Julio César Castro concluye el proceso de cambio y continúa su ciclo de vida.</t>
-    </r>
-  </si>
-  <si>
-    <t>Herramientas de gestión de cambios</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Se usará Jira Software para el cambio y gestión de tareas.</t>
-  </si>
-  <si>
-    <t>Procedimientos</t>
-  </si>
-  <si>
-    <t>Solicitud de cambios, Verificar Solicitud de Cambios, Evaluar Impactos, Tomar decisión y replanificar, Implantar el cambio, Concluir el proceso de cambio.</t>
-  </si>
-  <si>
-    <t>Formatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para la solicitud de cambio se usa el documento Formato FGPR410 (ver Anexo 1), en el cual se detallan diversos datos de la solicitud de cambio, como la razón, descripción del cambio, definición del problema, solicitante, efecto en el proyecto, etc. </t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>El cambio tiene un tecnicismo del cual el equipo desarrollador cuanta con la experiencia y conocimiento para ejecutar el cambio.</t>
-  </si>
-  <si>
-    <t>El cambio no aumenta representa un costo mayor al 5% del presupuesto previamente establecido en el acta de constitución. Es decir, el presupuesto debe ser aumentado a más de un 5%.</t>
-  </si>
-  <si>
-    <t>El cambio constituyo un tiempo de ejecución no mayor a dos semanas.</t>
-  </si>
-  <si>
-    <t>El cambio está delimitado al alcance del proyecto según el plan de gestión del alcance, o bien, está altamente ligado al requisito que representa.</t>
-  </si>
-  <si>
-    <t>El cambio no puede estar en un nuevo requisito.</t>
-  </si>
-  <si>
-    <t>El cambio no implica un rediseño de total del plan de trabajo.</t>
-  </si>
-  <si>
-    <t>4. 	Toma de decisión: Julio César Castro toma la decisión consultando al Sponsor (Esteban Ballestero), o en su defecto consultando a por lo menos dos miembros del Comité de Control de Cambios (Andrik Solano Jiménez, Luz Clara Mora Salazar o Steven Solís Obando).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">El Asistente de Gestión de Proyectos se contacta con el stakeholder cada vez que capta una iniciativa de cambio al ser una metodología ágil.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Entrevista al Stakeholder y levanta información detallada sobre lo que desea. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Formaliza la iniciativa de cambio elaborando la Solicitud de Cambio respectiva usando el formato FGPR410 (ver Anexo).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Se presenta la solicitud de cambio al Project Manager</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrador de proyecto es la única persona autorizada para utilizar y ejecutar personalmente este Plan de Contingencia.
-</t>
-  </si>
-  <si>
-    <t>1. Registrar la Solicitud de Cambio: El Project Manager registra personalmente la solicitud.</t>
-  </si>
-  <si>
-    <t>Detalle el cambio solicitado, indique qué, quién, cómo, cuándo, dónde</t>
-  </si>
-  <si>
-    <t>Razón por la que se solicita el cambio, qué motiva el cambio, porque se elige este curso de acción y no otro. Indique el efecto si el cammbio no se realiza</t>
-  </si>
-  <si>
-    <t>Efecto en el proyecto</t>
-  </si>
-  <si>
-    <t>Efecto en otros proyectos</t>
-  </si>
-  <si>
-    <t>El Project Manager tiene la autoridad para aprobar el cambio y coordinar su ejecución con equipo del proyecto</t>
-  </si>
-  <si>
-    <t>Plan de gestión de cambios</t>
-  </si>
-  <si>
-    <t>Patrocinador</t>
-  </si>
-  <si>
-    <t>Equipo de Trabajo</t>
-  </si>
-  <si>
-    <t>Acronimo</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>StakeHolders</t>
-  </si>
-  <si>
-    <t>Interesados en el proyecto</t>
-  </si>
-  <si>
-    <t>Gerente del Proyecto</t>
-  </si>
-  <si>
-    <t>Definición del Problema o Situación Actual. Acote el problema a resolver, indique las causas y consecuencias</t>
-  </si>
-  <si>
-    <t>Fecha:</t>
-  </si>
-  <si>
-    <t>Solicitud del Cambio</t>
-  </si>
-  <si>
-    <t>Prioridad del Cambio:</t>
-  </si>
-  <si>
-    <t>Identificación del Cambio:</t>
-  </si>
-  <si>
-    <t>Nombre del Solicitante del Cambio:</t>
-  </si>
-  <si>
-    <t>Tipo de Cambio Requerido (Cambiar color a verde)</t>
+      <t xml:space="preserve">	 Concluir el cambio: El Asistente de Gestión de Proyectos  concluye el proceso de cambio y continúa su ciclo de vida.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1128,6 +1135,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1140,6 +1168,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1147,15 +1184,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1168,12 +1196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1192,6 +1214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1205,28 +1233,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1235,10 +1242,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1260,11 +1267,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBF60BDF-3604-4980-8BE6-A92FD6ACB059}" name="Tabla1" displayName="Tabla1" ref="A1:B15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBF60BDF-3604-4980-8BE6-A92FD6ACB059}" name="Tabla1" displayName="Tabla1" ref="A1:B15" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B15" xr:uid="{DBF60BDF-3604-4980-8BE6-A92FD6ACB059}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F91FF808-CD22-4151-9BA5-11E3AB3CE0FC}" name="Acronimo"/>
-    <tableColumn id="2" xr3:uid="{5C57A507-5EEF-417F-9BCE-71EB5F988B4C}" name="Detalle" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5C57A507-5EEF-417F-9BCE-71EB5F988B4C}" name="Detalle" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1536,10 +1543,13 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:D30"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,20 +1561,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1590,305 +1600,313 @@
     </row>
     <row r="6" spans="1:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" s="44" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="9" spans="1:4" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
+      <c r="A23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
+      <c r="A32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
+      <c r="A35" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>1</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-    </row>
-    <row r="42" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="B42" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+    </row>
+    <row r="43" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>2</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>3</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="B43" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>4</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>5</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
+        <v>5</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>6</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="B47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D21"/>
+    <mergeCell ref="A20:D22"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D30"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="A36:D38"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1905,8 +1923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA3B511-372B-41AF-90EC-731BC7FE8BF8}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,243 +1937,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
     </row>
     <row r="10" spans="1:4" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
     </row>
     <row r="11" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
     </row>
     <row r="12" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4" ht="147.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
+        <v>22</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:4" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:4" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4" ht="32.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:4" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-    </row>
-    <row r="23" spans="1:4" ht="44.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-    </row>
-    <row r="24" spans="1:4" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
     </row>
     <row r="31" spans="1:4" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A23:D23"/>
@@ -2161,24 +2200,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2191,51 +2212,52 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>66</v>
+      <c r="B4" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>59</v>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Administracion de Proyectos/Plantilla de Gestión de Cambio.xlsx
+++ b/Administracion de Proyectos/Plantilla de Gestión de Cambio.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fapor\Desktop\Universidad\Semestre-6\Proyecto admin y diseño\Administracion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B75750-E76D-4901-9958-AFF5D5633391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12367B6-8B85-4FD2-9B03-6F8605CF84A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B109A3AE-8A64-49C5-B896-A074A2C3C5F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="2" r:id="rId1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>Niveles de autoridad</t>
   </si>
@@ -870,6 +869,12 @@
       </rPr>
       <t xml:space="preserve">	 Concluir el cambio: El Asistente de Gestión de Proyectos  concluye el proceso de cambio y continúa su ciclo de vida.</t>
     </r>
+  </si>
+  <si>
+    <t>Anexos</t>
+  </si>
+  <si>
+    <t>Anexo 1</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1234,6 +1239,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1543,13 +1560,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D30"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,121 +1644,137 @@
       <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
@@ -1753,160 +1783,169 @@
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+    <row r="41" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" ht="42.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B43" s="33" t="s">
         <v>36</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-    </row>
-    <row r="43" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>2</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>3</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>4</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+        <v>3</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>5</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>6</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A20:D22"/>
+  <mergeCells count="24">
+    <mergeCell ref="A21:D23"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="A36:D38"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D31"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="A37:D39"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D32"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -1923,11 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA3B511-372B-41AF-90EC-731BC7FE8BF8}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:XFD25"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,7 +2248,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
